--- a/media/data-xlsx.xlsx
+++ b/media/data-xlsx.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,121 +383,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-2-1-1</t>
+          <t>1-4-1-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241024</t>
+          <t>4845</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMULSION CUTANEA SUAVIZANTE PH 5,2-5,7</t>
+          <t>CATETER ARTERIA UMBILICAL Nº 3,5</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1-1-1-1</t>
+          <t>1-4-2-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014831</t>
+          <t>4845</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALMOHADILLA-TRAVESERA 60x90 CM.  ABSORBENTE, IMPERMEABLE S/LATE</t>
+          <t>CATETER ARTERIA UMBILICAL Nº 3,5</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1-1-1-1</t>
+          <t>2-4-1-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014831</t>
+          <t>012404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALMOHADILLA-TRAVESERA 60x90 CM.  ABSORBENTE, IMPERMEABLE S/LATE</t>
+          <t>VALVULA BIFURCADA (CONEXION EN "Y") PARA VIA PERIFERICA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>550</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2-3-1-1</t>
+          <t>2-4-2-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014913</t>
+          <t>012404</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CELULOSA EN HOJAS DE 20 X 27 CM.  20 GR. /M2(PAQUETE300 HOJAS)</t>
+          <t>VALVULA BIFURCADA (CONEXION EN "Y") PARA VIA PERIFERICA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-2-11-1</t>
+          <t>2-8-3-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>025700</t>
+          <t>636</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TUBO RECOGIDA DE MUESTRA P/ANALIZADOR DE SANGRE OCULTA EN HECES **</t>
+          <t>CANULA VENOSA PERCUTANEA Nº 26</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -508,775 +508,425 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A-4-03-04-1</t>
+          <t>2-8-5-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015017</t>
+          <t>809</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JERINGA ESTERIL 3PIEZAS CONO CATETER 50ML. S/LATEX</t>
+          <t>COMPRESOR GOMA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>H7NA</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A-4-01-02-1</t>
+          <t>2-8-6-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>281282</t>
+          <t>809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JERINGA INSULINA CON AGUJA 0,50</t>
+          <t>COMPRESOR GOMA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>H7NA</t>
+          <t>HNEO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A-8-01-01-1</t>
+          <t>3-7-1-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>981</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GUANTE CURAS LATEX T. PEQUEÑA AMBIDIEXTRO</t>
+          <t>ESPONJA CON JABÓN</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>H7NA</t>
+          <t>PEND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B-7-02-04-1</t>
+          <t>3-7-2-1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>015033</t>
+          <t>981</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GUANTE  CIRUGIA LATEX Nº6 (S/POLVO)</t>
+          <t>ESPONJA CON JABÓN</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H7NA</t>
+          <t>PEND</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D-4-04-04-1</t>
+          <t>4-7-3-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013758</t>
+          <t>802</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>APOSITO HIDROCOLOIDE LAMINAR 10X10CM. ESPESOR NORM</t>
+          <t>COMPRESA GINECOLOGICA PEQUE¥A</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>H7NA</t>
+          <t>PEND</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B-1-03-04-1</t>
+          <t>7-1-1-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014947</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EQUIPO IRRIGACION RECTAL C/BOLSA 1500ML. A 2000ML.</t>
+          <t>GAFAS NASALES OXIGENO ADULTO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>H8NC</t>
+          <t>UCMA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A-2-05-06-1</t>
+          <t>7-5-5-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015011</t>
+          <t>018989</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JERINGA ESTERIL 3PIEAS CONO LUER 20ML S/LATEX CONCENTRICO</t>
+          <t>LANCETA DE SEGURIDAD ADULTO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>H8NC</t>
+          <t>UCMA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D-2-01-01-1</t>
+          <t>7-6-1-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014963</t>
+          <t>023381</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ESPARADRAPO GASA POROSO 5CM X 10M. ELAST.ADHES.S/LATEX</t>
+          <t>TERMOMETRO CLINICO DIGITAL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>H8NC</t>
+          <t>UCMA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D-2-01-01-1</t>
+          <t>7-6-2-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014963</t>
+          <t>023381</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ESPARADRAPO GASA POROSO 5CM X 10M. ELAST.ADHES.S/LATEX</t>
+          <t>TERMOMETRO CLINICO DIGITAL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>H8NC</t>
+          <t>UCMA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B-7-01-01-1</t>
+          <t>8-5-1-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>015104</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SONDA RECTAL DESECH. CH-28 40 CM  S/LATEX</t>
+          <t>LLAVE TRES PASOS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>UCMA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B-7-01-01-1</t>
+          <t>6-10-5-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>015104</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SONDA RECTAL DESECH. CH-28 40 CM  S/LATEX</t>
+          <t>RASURADORA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B-7-01-01-1</t>
+          <t>6-8-5-1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>015104</t>
+          <t>6209</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SONDA RECTAL DESECH. CH-28 40 CM  S/LATEX</t>
+          <t>SEDA TRENZADA NEGRA 0 TRIANG/RECTA AG. 75 MM. LONG. 100 CM.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B-7-01-01-1</t>
+          <t>7-6-7-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>015104</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SONDA RECTAL DESECH. CH-28 40 CM  S/LATEX</t>
+          <t>SONDA VESICAL FEMENINA Nº 16 DE 18 CM APROX. ESTERIL</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B-7-01-01-1</t>
+          <t>7-6-1-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015104</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SONDA RECTAL DESECH. CH-28 40 CM  S/LATEX</t>
+          <t>SONDA T/FOLEY Nº 14, BALON 5-15ML, 2 VIAS ESTERIL, MARCADO C</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>H8NB</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-2-7-1</t>
+          <t>8-9-1-1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>031480</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ORDEN INGRESO N¦ 24</t>
+          <t>ESPUMA DE POLIURETANO SIN BORDES ADHESIVOS DE 10 X 12 CM DE BAJA ADHERENCIA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALMV</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17-2-3-1</t>
+          <t>9-6-7-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>017675</t>
+          <t>010648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOLUCION ALCOHOL-GEL P/DESINFECCION MANOS (CARGA PARA DISPEN</t>
+          <t>APOSITO DE 2 X 45 APROX. CAVIDADES HERIDAS (ALGINATO CALCICO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ALMV</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-2-9-1</t>
+          <t>99-1-1-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>443</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VENDA GASA ORILLADA 10 CM X 10 MTRS.</t>
+          <t>TALADRADORA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4-2-14-1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>021712</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRONTOSAN BETAINA*</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1-4-1-1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>4845</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CATETER ARTERIA UMBILICAL Nº 3,5</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>HNEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1-6-4-1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1155</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>JERINGA TRES PIEZAS 20 ML</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>30</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>HNEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>11-4-1-1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EMPAPADORES 60X60</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>HNEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2-8-2-1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>019166</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CATETER VENOSO PERIFERICO 24G SIN ACTIVADOR, CON DISPOSITIVO</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>25</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>HNEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1-1-1-1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>030041</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MASCARILLA PARA ENDOSCOPIA TRANSPARENTE TAMAÑO ADULTO Nº4 CON CONEXION 22F (HEMBRA) LIBRE DE LATEX</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>PEND</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1-1-3-1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>030042</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ADAPTADOR RECTO 22M (MACHO) DE MASCARILLA ENDOSCOPIA PARA LINEA DE OXIGENO (LIBRE DE LATEX)</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>PEND</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1-4-2-1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>961</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ESPARADRAPO PAPEL 5 CM X 10 M</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>PEND</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2-2-3-1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>908</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DUQUESA PLASTICO 500 ML</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>PEND</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1-1-1-1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>020815</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>TUBO ORINA 11ML EXTRACCION VACIO, TAPON DE SEGURIDAD TIPO HE</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>300</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>17-2-5-1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CREMA</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2-2-3-1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>026152</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TUBO VACIO DE 5 ML. AMARILLO C/GEL, T/SEGURIDAD P/BIOQUIMICA</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>400</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>26-3-6-1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1421</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SONDA T/FOLEY Nº 14, BALON 5-15ML, 2 VIAS ESTERIL, MARCADO C</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ALMV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>27-1-1-1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1156</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>JERINGA TRES PIEZAS 50 ML CATETER (ALIMENTACION)</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>50</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ALMV</t>
+          <t>H5AA</t>
         </is>
       </c>
     </row>
